--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Infarto de Miocardio (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Infarto de Miocardio (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.38985740345881</v>
+        <v>21.56286567164171</v>
       </c>
       <c r="B2" t="n">
-        <v>1.751644992044992</v>
+        <v>1.328</v>
       </c>
       <c r="C2" t="n">
-        <v>45.09598828428195</v>
+        <v>45.25599999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.711405970149249</v>
+        <v>5.004517412935317</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09075557536145769</v>
+        <v>0.09200000000000004</v>
       </c>
       <c r="C3" t="n">
-        <v>13.01441676493441</v>
+        <v>13.99200000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.488179104477602</v>
+        <v>6.717592039800984</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3574792429792433</v>
+        <v>0.2959999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>17.17815947940948</v>
+        <v>16.432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.031688327482353</v>
+        <v>6.434129353233826</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2511559348059346</v>
+        <v>0.296</v>
       </c>
       <c r="C5" t="n">
-        <v>16.29906822098279</v>
+        <v>17.212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.12543615257047</v>
+        <v>13.15367164179102</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7852246235246229</v>
+        <v>0.9039999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>30.83111371683872</v>
+        <v>29.692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.90222978149545</v>
+        <v>19.21826865671642</v>
       </c>
       <c r="B7" t="n">
-        <v>0.836841660401919</v>
+        <v>1.016</v>
       </c>
       <c r="C7" t="n">
-        <v>42.7027637282652</v>
+        <v>42.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23.66436318407953</v>
+        <v>23.25946268656709</v>
       </c>
       <c r="B8" t="n">
-        <v>1.41395166402225</v>
+        <v>1.112</v>
       </c>
       <c r="C8" t="n">
-        <v>50.73277409642303</v>
+        <v>50.552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.2857479270315</v>
+        <v>12.28714427860696</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7916934065934063</v>
+        <v>0.6800000000000004</v>
       </c>
       <c r="C9" t="n">
-        <v>26.85066051317104</v>
+        <v>27.71600000000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25.91234979114934</v>
+        <v>26.24220895522376</v>
       </c>
       <c r="B10" t="n">
-        <v>1.147185131317816</v>
+        <v>1.308</v>
       </c>
       <c r="C10" t="n">
-        <v>56.30637364639509</v>
+        <v>56.83600000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23.83266890331879</v>
+        <v>23.6284975124377</v>
       </c>
       <c r="B11" t="n">
-        <v>1.401763034895389</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="n">
-        <v>51.16521842571815</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18.85506235489218</v>
+        <v>18.90330348258704</v>
       </c>
       <c r="B12" t="n">
-        <v>1.060955555555555</v>
+        <v>0.8280000000000007</v>
       </c>
       <c r="C12" t="n">
-        <v>41.62747615717615</v>
+        <v>42.29600000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26.53667928235932</v>
+        <v>26.11393034825859</v>
       </c>
       <c r="B13" t="n">
-        <v>1.990724074074075</v>
+        <v>1.923999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>57.10858323567855</v>
+        <v>57.63200000000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25.30114225194699</v>
+        <v>25.49970149253721</v>
       </c>
       <c r="B14" t="n">
-        <v>1.301983466315819</v>
+        <v>2.036000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>54.27913360177313</v>
+        <v>54.34799999999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.417058635394441</v>
+        <v>8.065094527363176</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6469174603174592</v>
+        <v>0.6160000000000003</v>
       </c>
       <c r="C15" t="n">
-        <v>19.14556744679424</v>
+        <v>20.324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13.38837597725656</v>
+        <v>13.75018905472635</v>
       </c>
       <c r="B16" t="n">
-        <v>0.77637912087912</v>
+        <v>1.048</v>
       </c>
       <c r="C16" t="n">
-        <v>30.96140260572761</v>
+        <v>30.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19.51233034825866</v>
+        <v>18.48640796019897</v>
       </c>
       <c r="B17" t="n">
-        <v>1.367713227513226</v>
+        <v>1.264</v>
       </c>
       <c r="C17" t="n">
-        <v>41.24301187146187</v>
+        <v>40.05600000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.488179104477602</v>
+        <v>6.786368159203972</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2318095238095238</v>
+        <v>0.276</v>
       </c>
       <c r="C18" t="n">
-        <v>16.94245947940948</v>
+        <v>16.528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>24.52826391024664</v>
+        <v>24.59144278606957</v>
       </c>
       <c r="B19" t="n">
-        <v>1.519671153247626</v>
+        <v>1.451999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>53.25265790327359</v>
+        <v>54.07200000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.85510348258706</v>
+        <v>14.95243781094527</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8075516039516027</v>
+        <v>0.88</v>
       </c>
       <c r="C20" t="n">
-        <v>32.39577215007216</v>
+        <v>32.924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.19101061359867</v>
+        <v>10.12644776119403</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6865804232804228</v>
+        <v>0.5840000000000002</v>
       </c>
       <c r="C21" t="n">
-        <v>24.7529565450889</v>
+        <v>24.48400000000002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26.7808485570328</v>
+        <v>26.82202985074615</v>
       </c>
       <c r="B22" t="n">
-        <v>1.504049424649425</v>
+        <v>1.832000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>56.54147624742098</v>
+        <v>56.81600000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.680624259654097</v>
+        <v>8.030208955223868</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5794190476190479</v>
+        <v>0.5920000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>19.50438073963074</v>
+        <v>19.936</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13.34846387112058</v>
+        <v>14.11978109452735</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7272870573870563</v>
+        <v>0.8960000000000002</v>
       </c>
       <c r="C24" t="n">
-        <v>31.42602652347653</v>
+        <v>32.06800000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.94764012118339</v>
+        <v>11.00071641791043</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5435973586421158</v>
+        <v>0.6040000000000004</v>
       </c>
       <c r="C25" t="n">
-        <v>25.46034294462847</v>
+        <v>25.71199999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.889743757403451</v>
+        <v>9.431343283582084</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7038793650793659</v>
+        <v>0.82</v>
       </c>
       <c r="C26" t="n">
-        <v>24.03358417856653</v>
+        <v>23.488</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.37113444254549</v>
+        <v>26.40069651741284</v>
       </c>
       <c r="B27" t="n">
-        <v>1.401303174603175</v>
+        <v>1.443999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>57.04091335344464</v>
+        <v>57.46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.62018189212657</v>
+        <v>20.76827860696507</v>
       </c>
       <c r="B28" t="n">
-        <v>1.277783744142568</v>
+        <v>1.12</v>
       </c>
       <c r="C28" t="n">
-        <v>43.1131667224932</v>
+        <v>43.55199999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7.994210376687981</v>
+        <v>8.282487562189051</v>
       </c>
       <c r="B29" t="n">
-        <v>0.50164126984127</v>
+        <v>0.484</v>
       </c>
       <c r="C29" t="n">
-        <v>19.63269185074186</v>
+        <v>20.28399999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18.81033972992181</v>
+        <v>17.61906467661691</v>
       </c>
       <c r="B30" t="n">
-        <v>1.907909523809522</v>
+        <v>1.58</v>
       </c>
       <c r="C30" t="n">
-        <v>39.57749185585656</v>
+        <v>38.61600000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23.78851227628081</v>
+        <v>23.90803980099493</v>
       </c>
       <c r="B31" t="n">
-        <v>1.41969395623451</v>
+        <v>1.284</v>
       </c>
       <c r="C31" t="n">
-        <v>53.09414048887365</v>
+        <v>51.20000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>25.9424649306675</v>
+        <v>25.35639800995018</v>
       </c>
       <c r="B32" t="n">
-        <v>1.810970647653</v>
+        <v>1.552</v>
       </c>
       <c r="C32" t="n">
-        <v>54.6099418989128</v>
+        <v>55.36400000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25.2185794274142</v>
+        <v>24.95289552238797</v>
       </c>
       <c r="B33" t="n">
-        <v>1.511167791358969</v>
+        <v>1.636000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>54.98686494782466</v>
+        <v>54.94399999999997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22.15657285136081</v>
+        <v>22.43221890547256</v>
       </c>
       <c r="B34" t="n">
-        <v>1.160553968253968</v>
+        <v>1.196000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>47.41062327667174</v>
+        <v>48.02400000000002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14.11508410329305</v>
+        <v>14.25822885572138</v>
       </c>
       <c r="B35" t="n">
-        <v>1.211333333333331</v>
+        <v>1.092000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>32.26870931568433</v>
+        <v>32.32400000000003</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18.99346297085997</v>
+        <v>19.72427860696514</v>
       </c>
       <c r="B36" t="n">
-        <v>1.431176830576831</v>
+        <v>1.536</v>
       </c>
       <c r="C36" t="n">
-        <v>42.83949388699536</v>
+        <v>43.748</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10.89070646766168</v>
+        <v>10.96867661691541</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5628741147741145</v>
+        <v>0.5040000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>24.70784480127715</v>
+        <v>25.67199999999998</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>25.85019236540456</v>
+        <v>26.067422885572</v>
       </c>
       <c r="B38" t="n">
-        <v>1.721283040488921</v>
+        <v>1.96</v>
       </c>
       <c r="C38" t="n">
-        <v>54.30186243785622</v>
+        <v>53.896</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18.90474726368157</v>
+        <v>19.05832835820895</v>
       </c>
       <c r="B39" t="n">
-        <v>1.23306507936508</v>
+        <v>1.02</v>
       </c>
       <c r="C39" t="n">
-        <v>41.65209154179153</v>
+        <v>42.47200000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.780415336018304</v>
+        <v>8.533054726368146</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2840686961186961</v>
+        <v>0.284</v>
       </c>
       <c r="C40" t="n">
-        <v>20.94188033910534</v>
+        <v>21.672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17.05576119402985</v>
+        <v>17.26189054726367</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9156010890176217</v>
+        <v>0.9520000000000002</v>
       </c>
       <c r="C41" t="n">
-        <v>39.12980820845819</v>
+        <v>39.45600000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>24.12729164171916</v>
+        <v>24.03675621890537</v>
       </c>
       <c r="B42" t="n">
-        <v>2.790795738031031</v>
+        <v>1.98</v>
       </c>
       <c r="C42" t="n">
-        <v>51.60659159595561</v>
+        <v>50.66800000000003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18.5319005922767</v>
+        <v>17.31016915422885</v>
       </c>
       <c r="B43" t="n">
-        <v>1.451377777777778</v>
+        <v>1.427999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>39.57749185585656</v>
+        <v>39.12800000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20.86644427860681</v>
+        <v>20.70819900497496</v>
       </c>
       <c r="B44" t="n">
-        <v>1.030364370944959</v>
+        <v>1.196000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>44.76826664755688</v>
+        <v>44.80799999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24.81948200160799</v>
+        <v>24.26718407960188</v>
       </c>
       <c r="B45" t="n">
-        <v>1.088631216931217</v>
+        <v>1.532000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>52.52796338914416</v>
+        <v>50.83600000000002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23.83345821326258</v>
+        <v>23.80790049751232</v>
       </c>
       <c r="B46" t="n">
-        <v>1.317163852120468</v>
+        <v>1.48</v>
       </c>
       <c r="C46" t="n">
-        <v>52.5651797671014</v>
+        <v>51.21600000000002</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25.75999971903874</v>
+        <v>25.95679601990036</v>
       </c>
       <c r="B47" t="n">
-        <v>1.257947842258597</v>
+        <v>1.772</v>
       </c>
       <c r="C47" t="n">
-        <v>57.41607568424851</v>
+        <v>58.788</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19.13022686567162</v>
+        <v>19.3397213930348</v>
       </c>
       <c r="B48" t="n">
-        <v>1.070636748436747</v>
+        <v>1.244</v>
       </c>
       <c r="C48" t="n">
-        <v>41.44472615717615</v>
+        <v>41.732</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.70149283740029</v>
+        <v>7.98346268656715</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3452959244459243</v>
+        <v>0.3919999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>18.85817113164613</v>
+        <v>19.92400000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.93107960199004</v>
+        <v>11.13263681592039</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8596598290598301</v>
+        <v>0.6599999999999997</v>
       </c>
       <c r="C50" t="n">
-        <v>25.2455765473089</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.634211940298503</v>
+        <v>4.911601990049743</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05978664799253035</v>
+        <v>0.07600000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>12.89497628874394</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>23.28532361999516</v>
+        <v>22.91657711442779</v>
       </c>
       <c r="B52" t="n">
-        <v>1.109488546769135</v>
+        <v>1.396</v>
       </c>
       <c r="C52" t="n">
-        <v>49.68725177208145</v>
+        <v>49.31199999999998</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19.68714626865667</v>
+        <v>19.09201990049747</v>
       </c>
       <c r="B53" t="n">
-        <v>1.142878306878305</v>
+        <v>1.364</v>
       </c>
       <c r="C53" t="n">
-        <v>41.38134154179154</v>
+        <v>40.68</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7.291621930032363</v>
+        <v>7.520099502487551</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7180560439560425</v>
+        <v>0.6720000000000005</v>
       </c>
       <c r="C54" t="n">
-        <v>18.53432477650158</v>
+        <v>18.64000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10.29507742241174</v>
+        <v>10.24326368159203</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8688195360195351</v>
+        <v>0.8440000000000003</v>
       </c>
       <c r="C55" t="n">
-        <v>24.26032479905715</v>
+        <v>23.90000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>25.16159340514459</v>
+        <v>25.09621890547252</v>
       </c>
       <c r="B56" t="n">
-        <v>1.573145757836935</v>
+        <v>1.444</v>
       </c>
       <c r="C56" t="n">
-        <v>54.23922396859258</v>
+        <v>54.64399999999998</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>26.0352650423303</v>
+        <v>25.86907462686556</v>
       </c>
       <c r="B57" t="n">
-        <v>1.703031003636887</v>
+        <v>1.740000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>54.39131745029189</v>
+        <v>55.25600000000002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.6584374792703</v>
+        <v>10.92232835820894</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6316074481074474</v>
+        <v>0.6200000000000002</v>
       </c>
       <c r="C58" t="n">
-        <v>24.48110418078653</v>
+        <v>25.21599999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22.76495546079119</v>
+        <v>22.37707462686557</v>
       </c>
       <c r="B59" t="n">
-        <v>1.045881331213817</v>
+        <v>1.115999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>49.4563420044809</v>
+        <v>49.28000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8.161578204217001</v>
+        <v>8.597970149253722</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6285931623931621</v>
+        <v>0.5800000000000003</v>
       </c>
       <c r="C60" t="n">
-        <v>20.36160118770119</v>
+        <v>21.87199999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>25.53515588533991</v>
+        <v>25.36616915422876</v>
       </c>
       <c r="B61" t="n">
-        <v>2.944611855247148</v>
+        <v>1.888</v>
       </c>
       <c r="C61" t="n">
-        <v>55.06217351925324</v>
+        <v>54.30399999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23.80137039585611</v>
+        <v>23.48525373134317</v>
       </c>
       <c r="B62" t="n">
-        <v>1.461382217673395</v>
+        <v>1.528</v>
       </c>
       <c r="C62" t="n">
-        <v>50.89487598057684</v>
+        <v>49.67999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>25.30016374051585</v>
+        <v>25.60107462686553</v>
       </c>
       <c r="B63" t="n">
-        <v>1.696903703703706</v>
+        <v>1.504</v>
       </c>
       <c r="C63" t="n">
-        <v>55.53974230022961</v>
+        <v>55.64000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8.056331106372891</v>
+        <v>8.370308457711436</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4027831094831099</v>
+        <v>0.4920000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>19.77119076849077</v>
+        <v>20.884</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>24.64994029850736</v>
+        <v>23.79556218905461</v>
       </c>
       <c r="B65" t="n">
-        <v>1.365447868756233</v>
+        <v>1.168</v>
       </c>
       <c r="C65" t="n">
-        <v>51.63989500014949</v>
+        <v>51.85199999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22.36833616996597</v>
+        <v>22.8170149253731</v>
       </c>
       <c r="B66" t="n">
-        <v>1.429017429193901</v>
+        <v>1.12</v>
       </c>
       <c r="C66" t="n">
-        <v>48.30542883222729</v>
+        <v>50.35999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22.37490190765556</v>
+        <v>22.41717412935317</v>
       </c>
       <c r="B67" t="n">
-        <v>2.180134776334774</v>
+        <v>2.131999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>47.58951568328472</v>
+        <v>48.132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.189320208481391</v>
+        <v>9.402308457711431</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4992805231805231</v>
+        <v>0.5320000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>23.17273067096302</v>
+        <v>23.02400000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>26.75645293027053</v>
+        <v>26.79474626865663</v>
       </c>
       <c r="B69" t="n">
-        <v>1.584951184110009</v>
+        <v>2.004</v>
       </c>
       <c r="C69" t="n">
-        <v>57.86593038869134</v>
+        <v>58.31999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8.706055058043106</v>
+        <v>8.309273631840789</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3701488455988453</v>
+        <v>0.34</v>
       </c>
       <c r="C70" t="n">
-        <v>20.91521367243867</v>
+        <v>20.64799999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12.8677558872305</v>
+        <v>13.07345273631839</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5207273929773928</v>
+        <v>0.4559999999999998</v>
       </c>
       <c r="C71" t="n">
-        <v>29.66512524697524</v>
+        <v>29.74800000000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>16.64455574508409</v>
+        <v>16.58537313432834</v>
       </c>
       <c r="B72" t="n">
-        <v>1.029369451160756</v>
+        <v>1.008</v>
       </c>
       <c r="C72" t="n">
-        <v>34.67448376149994</v>
+        <v>35.86399999999998</v>
       </c>
     </row>
   </sheetData>
